--- a/partE/results.xlsx
+++ b/partE/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingo\CS412\src\CS412-Team-NAME\partE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3328D6BE-D759-4E3F-A97D-90E881F5FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE6ACB-E7A9-4CA0-9035-29E58ED38A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
   </bookViews>
   <sheets>
     <sheet name="approx_lengths" sheetId="3" r:id="rId1"/>
@@ -693,6 +693,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'3.5_lengths'!$A$2</c:f>
@@ -724,8 +782,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2606,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E047C-977C-44B5-A39A-2C7EEF806384}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8013EB-B769-4356-AF60-28A1ACC7C59D}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>

--- a/partE/results.xlsx
+++ b/partE/results.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingo\CS412\src\CS412-Team-NAME\partE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE6ACB-E7A9-4CA0-9035-29E58ED38A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB65CCA-1E94-45B0-8640-A278BDB1BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
   </bookViews>
   <sheets>
     <sheet name="approx_lengths" sheetId="3" r:id="rId1"/>
     <sheet name="3.5_lengths" sheetId="5" r:id="rId2"/>
-    <sheet name="approx_time" sheetId="4" r:id="rId3"/>
-    <sheet name="3.5_times" sheetId="6" r:id="rId4"/>
-    <sheet name="3.5parallel_times" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="exact_time" sheetId="9" r:id="rId3"/>
+    <sheet name="approx_time" sheetId="4" r:id="rId4"/>
+    <sheet name="3.5_times" sheetId="6" r:id="rId5"/>
+    <sheet name="3.5parallel_times" sheetId="8" r:id="rId6"/>
+    <sheet name="times_stats" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="approx_length_output" localSheetId="0">approx_lengths!$A$2:$A$101</definedName>
-    <definedName name="approx_time_output" localSheetId="2">approx_time!$A$1:$C$101</definedName>
+    <definedName name="approx_time_output" localSheetId="3">approx_time!$A$1:$C$101</definedName>
     <definedName name="v3.5_length_output" localSheetId="1">'3.5_lengths'!$A$1:$A$100</definedName>
-    <definedName name="v3.5_time_output" localSheetId="3">'3.5_times'!$A$1:$C$101</definedName>
-    <definedName name="v3.5parallel_time_output" localSheetId="4">'3.5parallel_times'!$A$1:$C$101</definedName>
+    <definedName name="v3.5_time_output" localSheetId="4">'3.5_times'!$A$1:$C$101</definedName>
+    <definedName name="v3.5parallel_time_output" localSheetId="5">'3.5parallel_times'!$A$1:$C$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>time</t>
   </si>
@@ -109,6 +110,24 @@
   </si>
   <si>
     <t>Lengths Produced</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Approx</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t>Zenith Parallelized</t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1083,294 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>times_stats!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>times_stats!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Approx</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Zenith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zenith Parallelized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>times_stats!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6261999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7063242999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75584463800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0D5-4B31-9604-5A3C4D1EC9B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="455992959"/>
+        <c:axId val="455988639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455992959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455988639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455988639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455992959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1144,6 +1451,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1648,6 +1995,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2212,6 +3062,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872BEDDA-CB9C-48CF-37C7-B50649AB5FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692EDEE7-6C2C-B8EB-C08C-BA8D00481022}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44E047C-977C-44B5-A39A-2C7EEF806384}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -2697,11 +3588,526 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9497A5-6A18-4C59-BB8C-BA51A020B453}">
+  <dimension ref="A2:A101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>37.724912799999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>37.244874099999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>35.906534200000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>36.194240000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>35.516654299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>36.4562217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>36.783863699999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>37.774785199999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>35.566459299999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>35.148010200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>34.926748199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>35.445623900000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>35.2038595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>36.446301200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>41.156078899999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>37.952891200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>37.064177600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>37.8389892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>37.567782700000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>36.284906200000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>35.915939299999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>35.849720599999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>36.733419099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>37.119371100000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>36.103747499999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>36.407307699999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>34.430239100000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>36.690306100000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>34.198531699999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>36.397442699999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>36.000123700000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>36.034993900000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>36.461508600000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34.933971200000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35.521864800000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34.6543627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36.024526000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36.4312854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>36.479477199999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>35.016554300000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>35.156666199999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>38.272094899999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>36.886065799999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>35.501560900000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>35.436381799999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>34.878222399999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>37.0978523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>38.123724199999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>35.372495000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>36.337166699999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>34.938611600000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>35.6094449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>33.761118799999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>36.212857100000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>36.849202300000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>35.800070099999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>36.389603200000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>36.823993799999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>36.910441400000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>34.437616599999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>36.566052800000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>36.2982309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>35.463064500000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>35.204324499999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>36.528372500000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>36.3563166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>35.4896332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>36.179440700000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>35.668316500000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>36.192231200000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>37.267575800000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>34.348937499999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>36.122359199999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>37.950901000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>35.490456500000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>34.307008099999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>36.5494129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>34.3364756</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>36.285221900000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>36.335931500000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>35.3833056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>37.0027756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>35.329116599999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>35.615485200000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>35.815229199999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>37.154275900000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>38.056511200000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>37.115994899999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>37.599043600000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>37.246935899999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>34.042450899999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>36.939775699999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>36.983916800000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>37.963784199999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>36.971164999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>37.441376099999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>35.672017199999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>37.321817000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>36.715283200000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>37.3820324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD86F89B-9332-4F05-B5B9-3CDC48422353}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A101"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3220,12 +4626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8013EB-B769-4356-AF60-28A1ACC7C59D}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3744,12 +5150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58F6F59-4437-4512-90BB-F69B0D8FACB9}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C101"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4268,15 +5674,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C25D13-2FBA-4EEB-8742-9B5E28614403}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4.6261999999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.7063242999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.75584463800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36.250963519999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/partE/results.xlsx
+++ b/partE/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingo\CS412\src\CS412-Team-NAME\partE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB65CCA-1E94-45B0-8640-A278BDB1BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0BA7E-9CED-4A23-AA68-DA96A1A7FC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{6B30A81A-69C6-4C49-8B22-8CE46F5E374C}"/>
   </bookViews>
   <sheets>
     <sheet name="approx_lengths" sheetId="3" r:id="rId1"/>
@@ -163,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,15 +1139,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>times_stats!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Average Time</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1160,9 +1153,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>times_stats!$A$2:$A$4</c:f>
+              <c:f>times_stats!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Approx</c:v>
                 </c:pt>
@@ -1172,15 +1165,18 @@
                 <c:pt idx="2">
                   <c:v>Zenith Parallelized</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exact</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>times_stats!$B$2:$B$4</c:f>
+              <c:f>times_stats!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4.6261999999999999E-5</c:v>
                 </c:pt>
@@ -1190,12 +1186,15 @@
                 <c:pt idx="2">
                   <c:v>0.75584463800000001</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.250963519999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0D5-4B31-9604-5A3C4D1EC9B7}"/>
+              <c16:uniqueId val="{00000000-A105-44ED-AA8E-AD47DCBE1D29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1209,11 +1208,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455992959"/>
-        <c:axId val="455988639"/>
+        <c:axId val="456559664"/>
+        <c:axId val="456560144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455992959"/>
+        <c:axId val="456559664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455988639"/>
+        <c:crossAx val="456560144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1264,7 +1263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455988639"/>
+        <c:axId val="456560144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455992959"/>
+        <c:crossAx val="456559664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3086,23 +3085,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692EDEE7-6C2C-B8EB-C08C-BA8D00481022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB27FF1-4ABF-23FE-8E21-F756E0212325}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5678,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5700,7 +5699,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>4.6261999999999999E-5</v>
       </c>
     </row>
@@ -5708,7 +5707,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.7063242999999999E-2</v>
       </c>
     </row>
@@ -5716,7 +5715,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.75584463800000001</v>
       </c>
     </row>
@@ -5724,13 +5723,14 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>36.250963519999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
